--- a/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>83,72; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>89,49; 100,0</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,19%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>94,02; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>95,96; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>90,01; 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>94,39; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,31; 100</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,73; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>83,72; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>89,49; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>99,19%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,72; 100,0</t>
+          <t>94,02; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,49; 100,0</t>
+          <t>95,96; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>98,83%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>99,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>94,04; 100</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>94,02; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>95,96; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B14_2012-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,72; 100,0</t>
+          <t>86,25; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,49; 100,0</t>
+          <t>91,67; 100,0</t>
         </is>
       </c>
     </row>
@@ -784,12 +785,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,02; 100,0</t>
+          <t>92,67; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,96; 100,0</t>
+          <t>95,84; 100,0</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos antidepresivos, estimulantes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3806</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16002</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19809</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2426; 3806</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13985; 16002</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17831; 19809</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13806</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23977</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37783</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11640; 13806</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21994; 23977</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35662; 37783</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4953</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8253</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13205</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3158; 4953</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6540; 8253</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11290; 13205</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13953</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33712</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47665</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11929; 13953</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29911; 34681</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44584; 48634</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36518</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>81944</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>118461</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>34341; 36518</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>76836; 82913</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114458; 119430</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>